--- a/data/import_excel/构建-96孔板位置+INDEX导入模板E.xlsx
+++ b/data/import_excel/构建-96孔板位置+INDEX导入模板E.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -554,12 +554,12 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>GSD240109033P001</t>
+          <t>GSD240116005B001</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>BJ24190033-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0008-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
@@ -578,12 +578,12 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>GSD240109034P001</t>
+          <t>GSD240116006B001</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>BJ24190034-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0009-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
@@ -597,7 +597,22 @@
       <c r="F3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="D4" s="3" t="n"/>
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GSD240116007B001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PB241F0010-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>DU-11</t>
@@ -606,7 +621,22 @@
       <c r="F4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="D5" s="3" t="n"/>
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GSD240116008B001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PB241F0011-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>4</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>DU-12</t>
@@ -614,7 +644,22 @@
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="3" t="n"/>
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GSD240116009B001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PB241F0012-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>5</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>DU-13</t>
@@ -622,7 +667,22 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="3" t="n"/>
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GSD240116010B001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PB241F0013-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>6</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>DU-14</t>
@@ -630,7 +690,22 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" s="3" t="n"/>
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GSD240116011B001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PB241F0014-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>7</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>DU-15</t>
@@ -638,7 +713,22 @@
       </c>
     </row>
     <row r="9">
-      <c r="D9" s="3" t="n"/>
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GSD240116012B001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PB241F0015-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>8</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>DU-16</t>
@@ -646,7 +736,22 @@
       </c>
     </row>
     <row r="10">
-      <c r="D10" s="3" t="n"/>
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GSD240116013B001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PB241F0016-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>9</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>DU-17</t>
@@ -654,7 +759,22 @@
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="3" t="n"/>
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GSD240116014B001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PB241F0017-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>DU-18</t>
@@ -662,7 +782,22 @@
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="3" t="n"/>
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GSD240116015B001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PB241F0018-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>11</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>DU-19</t>
@@ -670,7 +805,22 @@
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="3" t="n"/>
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GSD240116016B001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PB241F0019-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>12</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>DU-2</t>
@@ -678,8 +828,22 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="6" t="n"/>
-      <c r="D14" s="3" t="n"/>
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>GSD240116017B001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PB241F0020-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>13</v>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>DU-20</t>
@@ -687,8 +851,22 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="6" t="n"/>
-      <c r="D15" s="3" t="n"/>
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>GSD240116018B001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PB241F0021-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>14</v>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>DU-21</t>
@@ -696,8 +874,22 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="6" t="n"/>
-      <c r="D16" s="3" t="n"/>
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>GSD240116019B001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PB241F0022-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>15</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>DU-22</t>
@@ -705,8 +897,22 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="6" t="n"/>
-      <c r="D17" s="3" t="n"/>
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>GSD240116020B001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PB241F0023-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>16</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>DU-23</t>
@@ -714,8 +920,22 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="6" t="n"/>
-      <c r="D18" s="3" t="n"/>
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>GSD240116021B001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PB241F0024-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>17</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>DU-24</t>
@@ -723,8 +943,22 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="6" t="n"/>
-      <c r="D19" s="3" t="n"/>
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>GSD240116022B001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PB241F0025-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>18</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>DU-25</t>
@@ -732,8 +966,22 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="6" t="n"/>
-      <c r="D20" s="3" t="n"/>
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>GSD240116023B001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PB241F0026-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>19</v>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>DU-26</t>
@@ -741,7 +989,22 @@
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="3" t="n"/>
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GSD240116024B001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PB241F0027-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>20</v>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>DU-27</t>
@@ -749,7 +1012,22 @@
       </c>
     </row>
     <row r="22">
-      <c r="D22" s="3" t="n"/>
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GSD240116005B002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PB241F0008-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>21</v>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>DU-28</t>
@@ -757,7 +1035,22 @@
       </c>
     </row>
     <row r="23">
-      <c r="D23" s="3" t="n"/>
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>GSD240116035P001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BJ241F0038-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>22</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>DU-29</t>
@@ -765,7 +1058,22 @@
       </c>
     </row>
     <row r="24">
-      <c r="D24" s="3" t="n"/>
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GSD240116036P001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BJ241F0039-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>23</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>DU-3</t>
@@ -773,7 +1081,22 @@
       </c>
     </row>
     <row r="25">
-      <c r="D25" s="3" t="n"/>
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GSD240116037P001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>BJ241F0040-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>24</v>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>DU-30</t>
@@ -781,7 +1104,22 @@
       </c>
     </row>
     <row r="26">
-      <c r="D26" s="3" t="n"/>
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GSD240116038P001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>BJ241F0041-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>25</v>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>DU-31</t>
@@ -789,7 +1127,22 @@
       </c>
     </row>
     <row r="27">
-      <c r="D27" s="3" t="n"/>
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GSD240116039P001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BJ241F0042-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>26</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>DU-32</t>
@@ -797,7 +1150,22 @@
       </c>
     </row>
     <row r="28">
-      <c r="D28" s="3" t="n"/>
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GSD240116041B001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NT241F0043-DF03XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>27</v>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>DU-33</t>
@@ -1356,10 +1724,6 @@
         </is>
       </c>
     </row>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/import_excel/构建-96孔板位置+INDEX导入模板E.xlsx
+++ b/data/import_excel/构建-96孔板位置+INDEX导入模板E.xlsx
@@ -554,12 +554,12 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>GSD240116005B001</t>
+          <t>GSD240116170B001</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>PB241F0008-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0168-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
@@ -578,12 +578,12 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>GSD240116006B001</t>
+          <t>GSD240116171B001</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>PB241F0009-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0169-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
@@ -602,12 +602,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GSD240116007B001</t>
+          <t>GSD240116172B001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PB241F0010-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0170-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
@@ -626,12 +626,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSD240116008B001</t>
+          <t>GSD240116173B001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PB241F0011-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0171-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
@@ -649,12 +649,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GSD240116009B001</t>
+          <t>GSD240116174B001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PB241F0012-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0172-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
@@ -672,12 +672,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GSD240116010B001</t>
+          <t>GSD240116175B001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PB241F0013-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0173-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
@@ -695,12 +695,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GSD240116011B001</t>
+          <t>GSD240116176B001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PB241F0014-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0174-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
@@ -718,12 +718,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GSD240116012B001</t>
+          <t>GSD240116177B001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PB241F0015-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0175-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
@@ -741,12 +741,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GSD240116013B001</t>
+          <t>GSD240116178B001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PB241F0016-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0176-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
@@ -764,12 +764,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GSD240116014B001</t>
+          <t>GSD240116179B001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PB241F0017-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0177-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
@@ -787,12 +787,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GSD240116015B001</t>
+          <t>GSD240116180B001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PB241F0018-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0178-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
@@ -810,12 +810,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GSD240116016B001</t>
+          <t>GSD240116181B001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PB241F0019-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0179-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
@@ -833,12 +833,12 @@
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>GSD240116017B001</t>
+          <t>GSD240116182B001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PB241F0020-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0180-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
@@ -856,12 +856,12 @@
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>GSD240116018B001</t>
+          <t>GSD240116183B001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PB241F0021-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0181-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
@@ -879,12 +879,12 @@
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>GSD240116019B001</t>
+          <t>GSD240116184B001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PB241F0022-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0182-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
@@ -902,12 +902,12 @@
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>GSD240116020B001</t>
+          <t>GSD240116185B001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PB241F0023-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0183-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>GSD240116021B001</t>
+          <t>GSD240116186B001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PB241F0024-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0184-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D18" s="3" t="n">
@@ -948,12 +948,12 @@
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>GSD240116022B001</t>
+          <t>GSD240116187B001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PB241F0025-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0185-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
@@ -971,12 +971,12 @@
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>GSD240116023B001</t>
+          <t>GSD240116188B001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PB241F0026-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0186-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
@@ -994,12 +994,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GSD240116024B001</t>
+          <t>GSD240116189B001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PB241F0027-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0187-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GSD240116005B002</t>
+          <t>GSD240116170B002</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PB241F0008-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241F0168-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
@@ -1040,12 +1040,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GSD240116035P001</t>
+          <t>GSD240116200P001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BJ241F0038-DF03XXXXXXXFX-N002J019</t>
+          <t>BJ241F0198-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
@@ -1063,12 +1063,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GSD240116036P001</t>
+          <t>GSD240116201P001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BJ241F0039-DF03XXXXXXXFX-N002J019</t>
+          <t>BJ241F0199-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GSD240116037P001</t>
+          <t>GSD240116202P001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BJ241F0040-DF03XXXXXXXFX-N002J019</t>
+          <t>BJ241F0200-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GSD240116038P001</t>
+          <t>GSD240116203P001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BJ241F0041-DF03XXXXXXXFX-N002J019</t>
+          <t>BJ241F0201-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GSD240116039P001</t>
+          <t>GSD240116204P001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BJ241F0042-DF03XXXXXXXFX-N002J019</t>
+          <t>BJ241F0202-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GSD240116041B001</t>
+          <t>GSD240116205B001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NT241F0043-DF03XXXXXXXFX-N002</t>
+          <t>NT241F0203-DF03XXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
@@ -1173,7 +1173,22 @@
       </c>
     </row>
     <row r="29">
-      <c r="D29" s="3" t="n"/>
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GSD231025039P001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NP230Q0039-1XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>28</v>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>DU-34</t>
@@ -1181,7 +1196,22 @@
       </c>
     </row>
     <row r="30">
-      <c r="D30" s="3" t="n"/>
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GSD231025035P001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NT230Q0035-1XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>29</v>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>DU-35</t>
@@ -1189,7 +1219,22 @@
       </c>
     </row>
     <row r="31">
-      <c r="D31" s="3" t="n"/>
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GSD231025010P001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NT230Q0010-csXXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>30</v>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>DU-36</t>

--- a/data/import_excel/构建-96孔板位置+INDEX导入模板E.xlsx
+++ b/data/import_excel/构建-96孔板位置+INDEX导入模板E.xlsx
@@ -554,12 +554,12 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>GSD240116170B001</t>
+          <t>GSD231219005P001</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>PB241F0168-DF03XXXXXXXFX-N002J019</t>
+          <t>BP23BJ0005-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
@@ -578,12 +578,12 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>GSD240116171B001</t>
+          <t>GSD231219010P001</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>PB241F0169-DF03XXXXXXXFX-N002J019</t>
+          <t>BP23BJ0010-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">

--- a/data/import_excel/构建-96孔板位置+INDEX导入模板E.xlsx
+++ b/data/import_excel/构建-96孔板位置+INDEX导入模板E.xlsx
@@ -554,12 +554,12 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>GSD231219005P001</t>
+          <t>GSD231213002P001</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>BP23BJ0005-DF03XXXXXXXFX-N002J019</t>
+          <t>BJ23BC0002-DF03XXXXXXXFX-N002L001P001K490</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
@@ -578,12 +578,12 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>GSD231219010P001</t>
+          <t>GSD231213003P001</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>BP23BJ0010-DF03XXXXXXXFX-N002J019</t>
+          <t>BJ23BC0003-DF03XXXXXXXFX-N002L001P002K490</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
@@ -602,12 +602,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GSD240116172B001</t>
+          <t>GSD231213005P001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PB241F0170-DF03XXXXXXXFX-N002J019</t>
+          <t>NT23BC0005-DF03XXXXXXXFX-N002</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
@@ -626,12 +626,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSD240116173B001</t>
+          <t>GSD231214007B002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PB241F0171-DF03XXXXXXXFX-N002J019</t>
+          <t>BJ23BD0008-DF01XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">

--- a/data/import_excel/构建-96孔板位置+INDEX导入模板E.xlsx
+++ b/data/import_excel/构建-96孔板位置+INDEX导入模板E.xlsx
@@ -506,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -554,12 +554,12 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>GSD231213002P001</t>
+          <t>GSD240130064B001</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>BJ23BC0002-DF03XXXXXXXFX-N002L001P001K490</t>
+          <t>PB241V0062-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D2" s="3" t="n">
@@ -578,12 +578,12 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>GSD231213003P001</t>
+          <t>GSD240130065B001</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>BJ23BC0003-DF03XXXXXXXFX-N002L001P002K490</t>
+          <t>PB241V0063-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D3" s="3" t="n">
@@ -602,12 +602,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GSD231213005P001</t>
+          <t>GSD240130066B001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NT23BC0005-DF03XXXXXXXFX-N002</t>
+          <t>PB241V0064-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D4" s="3" t="n">
@@ -626,12 +626,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSD231214007B002</t>
+          <t>GSD240130067B001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BJ23BD0008-DF01XXXXXXXFX-N002J019</t>
+          <t>PB241V0065-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
@@ -649,12 +649,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GSD240116174B001</t>
+          <t>GSD240130068B001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PB241F0172-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241V0066-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
@@ -672,12 +672,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GSD240116175B001</t>
+          <t>GSD240130069B001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PB241F0173-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241V0067-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
@@ -695,12 +695,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GSD240116176B001</t>
+          <t>GSD240130070B001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PB241F0174-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241V0068-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
@@ -718,12 +718,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GSD240116177B001</t>
+          <t>GSD240130071B001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PB241F0175-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241V0069-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
@@ -741,12 +741,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GSD240116178B001</t>
+          <t>GSD240130072B001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PB241F0176-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241V0070-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
@@ -764,12 +764,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GSD240116179B001</t>
+          <t>GSD240130073B001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PB241F0177-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241V0071-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
@@ -787,12 +787,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GSD240116180B001</t>
+          <t>GSD240130064B002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PB241F0178-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241V0062-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
@@ -810,12 +810,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GSD240116181B001</t>
+          <t>GSD240130079P001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PB241F0179-DF03XXXXXXXFX-N002J019</t>
+          <t>BJ241V0077-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
@@ -833,12 +833,12 @@
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>GSD240116182B001</t>
+          <t>GSD240130080P001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PB241F0180-DF03XXXXXXXFX-N002J019</t>
+          <t>BJ241V0078-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D14" s="3" t="n">
@@ -856,12 +856,12 @@
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>GSD240116183B001</t>
+          <t>GSD240130081P001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PB241F0181-DF03XXXXXXXFX-N002J019</t>
+          <t>BJ241V0079-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D15" s="3" t="n">
@@ -879,12 +879,12 @@
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>GSD240116184B001</t>
+          <t>GSD240130082P001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PB241F0182-DF03XXXXXXXFX-N002J019</t>
+          <t>BJ241V0080-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
@@ -902,12 +902,12 @@
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>GSD240116185B001</t>
+          <t>GSD240130083P001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PB241F0183-DF03XXXXXXXFX-N002J019</t>
+          <t>BJ241V0081-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>GSD240116186B001</t>
+          <t>GSD240130084B001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PB241F0184-DF03XXXXXXXFX-N002J019</t>
+          <t>NT241V0082-DF03XXXXXXXFX-N002M024</t>
         </is>
       </c>
       <c r="D18" s="3" t="n">
@@ -948,12 +948,12 @@
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>GSD240116187B001</t>
+          <t>GSD230831001B001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PB241F0185-DF03XXXXXXXFX-N002J019</t>
+          <t>BJ238W0001-DF03XXXXXXXFX-N002JQ21</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
@@ -971,12 +971,12 @@
       </c>
       <c r="B20" s="6" t="inlineStr">
         <is>
-          <t>GSD240116188B001</t>
+          <t>GSD230901020B001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PB241F0186-DF03XXXXXXXFX-N002J019</t>
+          <t>BK23910020-DF03XXXXXXXFX-N002JQ32</t>
         </is>
       </c>
       <c r="D20" s="3" t="n">
@@ -994,12 +994,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GSD240116189B001</t>
+          <t>GSD230922008B001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PB241F0187-DF03XXXXXXXFX-N002J019</t>
+          <t>PB239M0009-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GSD240116170B002</t>
+          <t>GSD230922007B001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PB241F0168-DF03XXXXXXXFX-N002J019</t>
+          <t>PB239M0008-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D22" s="3" t="n">
@@ -1040,12 +1040,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GSD240116200P001</t>
+          <t>GSD231018233B001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BJ241F0198-DF03XXXXXXXFX-N002J019</t>
+          <t>BI230J0231-DF03XXXXXXXFX-N005JQ07</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
@@ -1063,12 +1063,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GSD240116201P001</t>
+          <t>GSD231215007B001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BJ241F0199-DF03XXXXXXXFX-N002J019</t>
+          <t>CF23BE0010-DF03XXXXXXXFX-N002L001</t>
         </is>
       </c>
       <c r="D24" s="3" t="n">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GSD240116202P001</t>
+          <t>GSD240108002B001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BJ241F0200-DF03XXXXXXXFX-N002J019</t>
+          <t>CE24180002-DF03XXXXXXXFX-N002L001</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GSD240116203P001</t>
+          <t>GSD240116080B001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BJ241F0201-DF03XXXXXXXFX-N002J019</t>
+          <t>BJ241F0082-DF03XXXXXXXFX-N002L001</t>
         </is>
       </c>
       <c r="D26" s="3" t="n">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GSD240116204P001</t>
+          <t>GSD240118182B001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BJ241F0202-DF03XXXXXXXFX-N002J019</t>
+          <t>PB241H0181-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GSD240116205B001</t>
+          <t>GSD240118181B001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NT241F0203-DF03XXXXXXXFX-N002</t>
+          <t>PB241H0180-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GSD231025039P001</t>
+          <t>GSD240118180B001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NP230Q0039-1XXXXXXXFX-N002</t>
+          <t>PB241H0179-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D29" s="3" t="n">
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GSD231025035P001</t>
+          <t>GSD240118179B001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NT230Q0035-1XXXXXXXFX-N002</t>
+          <t>PB241H0178-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D30" s="3" t="n">
@@ -1224,12 +1224,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GSD231025010P001</t>
+          <t>GSD240118178B001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NT230Q0010-csXXXXXXXFX-N002</t>
+          <t>PB241H0177-DF03XXXXXXXFX-N002J019</t>
         </is>
       </c>
       <c r="D31" s="3" t="n">
@@ -1242,7 +1242,22 @@
       </c>
     </row>
     <row r="32">
-      <c r="D32" s="3" t="n"/>
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GSD240118177B001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PB241H0176-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>31</v>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>DU-37</t>
@@ -1250,7 +1265,22 @@
       </c>
     </row>
     <row r="33">
-      <c r="D33" s="3" t="n"/>
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>GSD240118176B001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PB241H0175-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>32</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>DU-38</t>
@@ -1258,7 +1288,22 @@
       </c>
     </row>
     <row r="34">
-      <c r="D34" s="3" t="n"/>
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GSD240118175B001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PB241H0174-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>33</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>DU-39</t>
@@ -1266,7 +1311,22 @@
       </c>
     </row>
     <row r="35">
-      <c r="D35" s="3" t="n"/>
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>GSD240118174B001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PB241H0173-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>34</v>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>DU-4</t>
@@ -1274,7 +1334,22 @@
       </c>
     </row>
     <row r="36">
-      <c r="D36" s="3" t="n"/>
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>GSD240118173B001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PB241H0172-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>35</v>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>DU-40</t>
@@ -1282,7 +1357,22 @@
       </c>
     </row>
     <row r="37">
-      <c r="D37" s="3" t="n"/>
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>GSD240118172B001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PB241H0171-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>36</v>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>DU-41</t>
@@ -1290,7 +1380,22 @@
       </c>
     </row>
     <row r="38">
-      <c r="D38" s="3" t="n"/>
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GSD240118171B001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PB241H0170-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>37</v>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>DU-42</t>
@@ -1298,7 +1403,22 @@
       </c>
     </row>
     <row r="39">
-      <c r="D39" s="3" t="n"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GSD240118170B001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PB241H0169-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>38</v>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>DU-43</t>
@@ -1306,7 +1426,22 @@
       </c>
     </row>
     <row r="40">
-      <c r="D40" s="3" t="n"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GSD240118169B001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PB241H0168-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>39</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>DU-44</t>
@@ -1314,7 +1449,22 @@
       </c>
     </row>
     <row r="41">
-      <c r="D41" s="3" t="n"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>GSD240118168B001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BJ241H0167-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>40</v>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>DU-45</t>
@@ -1322,7 +1472,22 @@
       </c>
     </row>
     <row r="42">
-      <c r="D42" s="3" t="n"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GSD240118167B001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BJ241H0166-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>41</v>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>DU-46</t>
@@ -1330,7 +1495,22 @@
       </c>
     </row>
     <row r="43">
-      <c r="D43" s="3" t="n"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>GSD240118163B001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BJ241H0164-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>42</v>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>DU-47</t>
@@ -1338,7 +1518,22 @@
       </c>
     </row>
     <row r="44">
-      <c r="D44" s="3" t="n"/>
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>GSD240118014B001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BJ241H0014-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>43</v>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>DU-48</t>
@@ -1346,7 +1541,22 @@
       </c>
     </row>
     <row r="45">
-      <c r="D45" s="3" t="n"/>
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>GSD240118013B001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BJ241H0013-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>44</v>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>DU-49</t>
@@ -1354,7 +1564,22 @@
       </c>
     </row>
     <row r="46">
-      <c r="D46" s="3" t="n"/>
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>GSD240122008B002</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BT241M0009-1XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>45</v>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>DU-5</t>
@@ -1362,7 +1587,22 @@
       </c>
     </row>
     <row r="47">
-      <c r="D47" s="3" t="n"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>GSD240122008B001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>BT241M0009-1XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>46</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>DU-50</t>
@@ -1370,7 +1610,22 @@
       </c>
     </row>
     <row r="48">
-      <c r="D48" s="3" t="n"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>GSD240124052B001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NT241P0052-DF03XXXXXXXFX-N002M024</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>47</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>DU-51</t>
@@ -1378,7 +1633,22 @@
       </c>
     </row>
     <row r="49">
-      <c r="D49" s="3" t="n"/>
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>GSD240124048B002</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BJ241P0048-DF01XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>48</v>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>DU-52</t>
@@ -1386,7 +1656,22 @@
       </c>
     </row>
     <row r="50">
-      <c r="D50" s="3" t="n"/>
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>GSD240124048B001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BJ241P0048-DF01XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>49</v>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>DU-53</t>
@@ -1394,7 +1679,22 @@
       </c>
     </row>
     <row r="51">
-      <c r="D51" s="3" t="n"/>
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GSD240122012B002</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BJ241M0013-DF01XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>50</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>DU-54</t>
@@ -1402,7 +1702,22 @@
       </c>
     </row>
     <row r="52">
-      <c r="D52" s="3" t="n"/>
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>GSD240122012B001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BJ241M0013-DF01XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>51</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>DU-55</t>
@@ -1410,7 +1725,22 @@
       </c>
     </row>
     <row r="53">
-      <c r="D53" s="3" t="n"/>
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>GSD240118204B001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NT241H0203-DF03XXXXXXXFX-N002M024</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>52</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>DU-56</t>
@@ -1418,7 +1748,22 @@
       </c>
     </row>
     <row r="54">
-      <c r="D54" s="3" t="n"/>
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>GSD240118203P001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>BJ241H0202-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>53</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>DU-57</t>
@@ -1426,7 +1771,22 @@
       </c>
     </row>
     <row r="55">
-      <c r="D55" s="3" t="n"/>
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>GSD240118202P001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>BJ241H0201-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>54</v>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>DU-58</t>
@@ -1434,7 +1794,22 @@
       </c>
     </row>
     <row r="56">
-      <c r="D56" s="3" t="n"/>
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>GSD240118201P001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>BJ241H0200-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>55</v>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>DU-59</t>
@@ -1442,7 +1817,22 @@
       </c>
     </row>
     <row r="57">
-      <c r="D57" s="3" t="n"/>
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>GSD240118200P001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>BJ241H0199-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>56</v>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>DU-6</t>
@@ -1450,7 +1840,22 @@
       </c>
     </row>
     <row r="58">
-      <c r="D58" s="3" t="n"/>
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>GSD240118199P001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>BJ241H0198-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>57</v>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>DU-60</t>
@@ -1458,7 +1863,22 @@
       </c>
     </row>
     <row r="59">
-      <c r="D59" s="3" t="n"/>
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>GSD240118169B002</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PB241H0168-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>58</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>DU-61</t>
@@ -1466,7 +1886,22 @@
       </c>
     </row>
     <row r="60">
-      <c r="D60" s="3" t="n"/>
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>GSD240105009B001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NT24151932-1XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>59</v>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>DU-62</t>
@@ -1474,7 +1909,22 @@
       </c>
     </row>
     <row r="61">
-      <c r="D61" s="3" t="n"/>
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>GSD231221008P001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NT23BL0008-XXXXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>60</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>DU-63</t>
@@ -1482,7 +1932,22 @@
       </c>
     </row>
     <row r="62">
-      <c r="D62" s="3" t="n"/>
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>GSD231220006P001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>BP23BK0006-DF03XXXXXXXFX-N002JQ94</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>61</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>DU-64</t>
@@ -1490,7 +1955,22 @@
       </c>
     </row>
     <row r="63">
-      <c r="D63" s="3" t="n"/>
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>GSD231220004P001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>BP23BK0004-DF03XXXXXXXFX-N002JQ94</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>62</v>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>DU-65</t>
@@ -1498,7 +1978,22 @@
       </c>
     </row>
     <row r="64">
-      <c r="D64" s="3" t="n"/>
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>GSD231218057B001</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NT23BH0050-DF03XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>63</v>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>DU-66</t>
@@ -1506,7 +2001,22 @@
       </c>
     </row>
     <row r="65">
-      <c r="D65" s="3" t="n"/>
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>GSD231218021P001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CF23BH0020-DF03XXXXXXXFX-N003L001</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>64</v>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>DU-67</t>
@@ -1514,7 +2024,22 @@
       </c>
     </row>
     <row r="66">
-      <c r="D66" s="3" t="n"/>
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>GSD231218020P001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CX23BH0019-DF03XXXXXXXFX-N003L001</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>65</v>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>DU-68</t>
@@ -1522,7 +2047,22 @@
       </c>
     </row>
     <row r="67">
-      <c r="D67" s="3" t="n"/>
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>GSD231218019P001</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>TJ23BH0018-DF03XXXXXXXFX-N003L001</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>66</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>DU-69</t>
@@ -1530,7 +2070,22 @@
       </c>
     </row>
     <row r="68">
-      <c r="D68" s="3" t="n"/>
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>GSD231218018P001</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SX23BH0017-DF03XXXXXXXFX-N003L001</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>67</v>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>DU-7</t>
@@ -1538,7 +2093,22 @@
       </c>
     </row>
     <row r="69">
-      <c r="D69" s="3" t="n"/>
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>GSD231218017P001</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CG23BH0016-DF03XXXXXXXFX-N003L001</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>68</v>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>DU-70</t>
@@ -1546,7 +2116,22 @@
       </c>
     </row>
     <row r="70">
-      <c r="D70" s="3" t="n"/>
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>GSD231218016P001</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CE23BH0015-DF03XXXXXXXFX-N003L001</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>69</v>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>DU-71</t>
@@ -1554,7 +2139,22 @@
       </c>
     </row>
     <row r="71">
-      <c r="D71" s="3" t="n"/>
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>GSD231218015P001</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CB23BH0014-DF03XXXXXXXFX-N003L001</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>70</v>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>DU-72</t>
@@ -1562,7 +2162,22 @@
       </c>
     </row>
     <row r="72">
-      <c r="D72" s="3" t="n"/>
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>GSD231218014P002</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CA23BH0013-DF03XXXXXXXFX-N003L001</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>71</v>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>DU-73</t>
@@ -1570,7 +2185,22 @@
       </c>
     </row>
     <row r="73">
-      <c r="D73" s="3" t="n"/>
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>GSD231218002P002</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CF23BH0006-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>72</v>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>DU-74</t>
@@ -1578,7 +2208,22 @@
       </c>
     </row>
     <row r="74">
-      <c r="D74" s="3" t="n"/>
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>GSD231214003B001</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NP23BD0004-DF03XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>73</v>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>DU-75</t>
@@ -1586,7 +2231,22 @@
       </c>
     </row>
     <row r="75">
-      <c r="D75" s="3" t="n"/>
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>GSD231211010P001</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>BJ23BA0009-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>74</v>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>DU-76</t>
@@ -1594,7 +2254,22 @@
       </c>
     </row>
     <row r="76">
-      <c r="D76" s="3" t="n"/>
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>GSD231211009P001</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NT23BA0008-DF03XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>75</v>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>DU-77</t>
@@ -1602,7 +2277,22 @@
       </c>
     </row>
     <row r="77">
-      <c r="D77" s="3" t="n"/>
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>GSD231208037B001</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NT23B80037-XXXXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>76</v>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>DU-78</t>
@@ -1610,7 +2300,22 @@
       </c>
     </row>
     <row r="78">
-      <c r="D78" s="3" t="n"/>
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>GSD231207002B001</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NP23B70002-DF03XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>77</v>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>DU-79</t>
@@ -1618,7 +2323,22 @@
       </c>
     </row>
     <row r="79">
-      <c r="D79" s="3" t="n"/>
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>GSD231207001P001</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NT23B70001-DF03XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>78</v>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>DU-8</t>
@@ -1626,7 +2346,22 @@
       </c>
     </row>
     <row r="80">
-      <c r="D80" s="3" t="n"/>
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>GSD231117006B007</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>BT241A0008-DF03XXXXXXXFX-N002M007</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>79</v>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>DU-80</t>
@@ -1634,7 +2369,22 @@
       </c>
     </row>
     <row r="81">
-      <c r="D81" s="3" t="n"/>
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>GSD231101166P001</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NP23A10168-1XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>80</v>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>DU-81</t>
@@ -1642,7 +2392,22 @@
       </c>
     </row>
     <row r="82">
-      <c r="D82" s="3" t="n"/>
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>GSD231101165P001</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NT23A10167-1XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>81</v>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>DU-82</t>
@@ -1650,7 +2415,22 @@
       </c>
     </row>
     <row r="83">
-      <c r="D83" s="3" t="n"/>
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>GSD231101164P001</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NT23A10166-1XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>82</v>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>DU-83</t>
@@ -1658,7 +2438,22 @@
       </c>
     </row>
     <row r="84">
-      <c r="D84" s="3" t="n"/>
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>GSD231025045P001</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NP230Q0045-DF03XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>83</v>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>DU-84</t>
@@ -1666,7 +2461,22 @@
       </c>
     </row>
     <row r="85">
-      <c r="D85" s="3" t="n"/>
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>GSD231025043P001</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NT230Q0043-DF03XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>84</v>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>DU-85</t>
@@ -1674,7 +2484,22 @@
       </c>
     </row>
     <row r="86">
-      <c r="D86" s="3" t="n"/>
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>GSD231025042P001</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NT230Q0042-DF03XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>85</v>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>DU-86</t>
@@ -1682,7 +2507,22 @@
       </c>
     </row>
     <row r="87">
-      <c r="D87" s="3" t="n"/>
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>GSD231025041P001</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NT230Q0041-DF03XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>86</v>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>DU-87</t>
@@ -1690,7 +2530,22 @@
       </c>
     </row>
     <row r="88">
-      <c r="D88" s="3" t="n"/>
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>GSD231025039P001</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NP230Q0039-1XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>87</v>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>DU-88</t>
@@ -1698,7 +2553,22 @@
       </c>
     </row>
     <row r="89">
-      <c r="D89" s="3" t="n"/>
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>GSD231025035P001</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NT230Q0035-1XXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>88</v>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>DU-89</t>
@@ -1706,7 +2576,22 @@
       </c>
     </row>
     <row r="90">
-      <c r="D90" s="3" t="n"/>
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>GSD231025010P001</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>NT230Q0010-csXXXXXXXFX-N002</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>89</v>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>DU-9</t>
@@ -1714,7 +2599,22 @@
       </c>
     </row>
     <row r="91">
-      <c r="D91" s="3" t="n"/>
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>GSD230922007B002</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PB239M0008-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>90</v>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>DU-90</t>
@@ -1722,7 +2622,22 @@
       </c>
     </row>
     <row r="92">
-      <c r="D92" s="3" t="n"/>
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>GSD230828002P001</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>BJ238T0002-DF03XXXXXXXFX-N003JQ48</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>91</v>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>DU-91</t>
@@ -1730,7 +2645,22 @@
       </c>
     </row>
     <row r="93">
-      <c r="D93" s="3" t="n"/>
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>GSD230711017P001</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>BJ237A0016-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>92</v>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>DU-92</t>
@@ -1738,7 +2668,22 @@
       </c>
     </row>
     <row r="94">
-      <c r="D94" s="3" t="n"/>
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>GSD230711016P001</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>BJ237A0015-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>93</v>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>DU-93</t>
@@ -1746,7 +2691,22 @@
       </c>
     </row>
     <row r="95">
-      <c r="D95" s="3" t="n"/>
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>GSD230711015P001</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>BJ237A0014-DF03XXXXXXXFX-N002J019</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>94</v>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>DU-94</t>
@@ -1754,7 +2714,22 @@
       </c>
     </row>
     <row r="96">
-      <c r="D96" s="3" t="n"/>
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>GSD230530027P002</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>BJ235V0040-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>95</v>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>DU-95</t>
@@ -1762,11 +2737,422 @@
       </c>
     </row>
     <row r="97">
-      <c r="D97" s="3" t="n"/>
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>GSD220928002B001</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PB229T0002-DF03XXXXXXXFX-N005J019</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>96</v>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>DU-96</t>
         </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>GSD230508001B001</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>BJ23580001-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>GSD230518017B001</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>BK235H0017-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>GSD230518016B001</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>BJ235H0016-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>GSD230525110B001</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>BK235Q0107-DF03XXXXXXXFX-N002JK05</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>GSD230530019B001</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>BJ235V0034-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>GSD230602003B001</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>BJ23620003-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>GSD230608022B001</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>BK23680018-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>GSD230608021B001</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>BK23680017-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>GSD230608016B001</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>BJ23680013-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>GSD230627001B001</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NT236T0002-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>GSD230630001B001</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>BJ236V0001-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>GSD230703031B001</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>BJ23730003-DF03XXXXXXXFX-N002JQ52</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>GSD230703030B001</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>BJ23730002-DF03XXXXXXXFX-N002JQ52</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>GSD230703027B001</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>BJ23730001-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>GSD230704001B001</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>BJ23740002-DF03XXXXXXXFX-N002JQ52</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>GSD230706023B001</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>CD23760027-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>GSD230706014B001</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>CA23760013-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>GSD230706003B001</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>BT23760002-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>GSD230706020B001</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>BI23760024-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>GSD230706019B001</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>BI23760023-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>GSD230706018B001</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>BK23760020-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>GSD230706017B001</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>BK23760019-DF03XXXXXXXFX-N002L001</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
